--- a/biology/Botanique/Diospyros_lotus/Diospyros_lotus.xlsx
+++ b/biology/Botanique/Diospyros_lotus/Diospyros_lotus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diospyros lotus, le plaqueminier lotier, plaqueminier d'Italie, plaqueminier du Levant ou prunier-dattier, est une espèce de plante à fleurs de la famille des Ebenaceae.
 </t>
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre qui peut mesurer 15 à 30 mètres de haut. Son écorce est striée en vieillissant.
 Les feuilles sont alternes, ovales et mesurent de 5 à 15 cm de long sur 3 à 6 de large.
 L'arbre donne de minuscules fleurs vertes en juin et Juillet.
-Les fruits en forme de grosse cerise, jaunes au début puis bleu-noir à maturité, mesurent de 1 à 2 cm de diamètre[1]. Mûrs, ils sont très astringents mais une fois blets, ils développent un goût sucré et se conservent peu de temps.
+Les fruits en forme de grosse cerise, jaunes au début puis bleu-noir à maturité, mesurent de 1 à 2 cm de diamètre. Mûrs, ils sont très astringents mais une fois blets, ils développent un goût sucré et se conservent peu de temps.
 C'est le porte greffe usuel du plaqueminier.
 C'est une espèce diploide: 2x = 30
 </t>
@@ -547,7 +561,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est originaire d'Asie tempérée : Iran, Turquie, Arménie, Azerbaïjan, Georgie, Tajikistan, Turkmenistan, Ouzbekistan, Chine, Corée, ainsi qu'au Népal et au Pakistan.
 L'arbre est cultivé ailleurs dans les régions tempérées.
